--- a/medicine/Psychotrope/Cognac_Godet/Cognac_Godet.xlsx
+++ b/medicine/Psychotrope/Cognac_Godet/Cognac_Godet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La société Cognac Godet est une entreprise agroalimentaire spécialisée dans la production et la commercialisation de boissons distillées alcoolisées.
@@ -512,16 +524,18 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Détenu depuis le milieu du XVIe siècle par quinze générations de la même famille, le cognac Godet est une des plus anciennes entreprises familiales françaises.
-Arrivé des Pays-Bas en 1550, Bonaventure Godet établit un négoce de vins sur le quai de La Rochelle. Près de quarante ans plus tard, le futur Henri IV le remercie, par une lettre du 23 décembre 1588[1], pour une carafe de « brandwijn[2] » offerte au roi de Navarre, roi de France l'année suivante, à l'occasion d'une visite faite à La Rochelle six mois plus tôt[3].
-À la quatrième génération, Jean Godet enregistre ses armoiries dans l'Armorial général de France d'Hozier, ce qui n'en fait pas une famille noble. Elles se blasonnent « d'argent à trois godets de sable, posés en 2 et 1, et une étoile de même, posée en abyme ». Achetant une charge de conseiller du roi, il est nommé maire à vie de la ville de Fontenais[3]. La famille Godet est une famille subsistante d'ancienne bourgeoisie.
-C'est en 1782, à la septième génération, que Gédéon-Louis Godet inscrit au registre du commerce la société « Maison Godet, négociant en eaux de vie ». Il l'ouvre au négoce international, expédiant ses premières bouteilles sous la marque Godet. Il est élu vice commissaire de la marine et du commerce des Provinces-Unies. Et l'établissement continue de se développer tout au long du XIXe siècle, entre les rues du Duc et Saint-Claude, à proximité du canal de Rompsay[3].
-En octobre 2002, un incendie se déclare dans les bâtiments administratifs. Quoique sans gravité, il oblige le cognac Godet – qui stocke près de 700 m3 d'alcool pur – à quitter l'ancestral quartier Saint-Nicolas pour se mettre en conformité avec les nouvelles normes de sécurité[4]. L'entreprise s'installe à Laleu, au-dessus de la rocade, dans la zone d'activité des Rivauds Nord, à l'emplacement des vignobles d'avant le phylloxéra[5].
-Le cognac Godet, « entreprise de dimension internationale[6] », s'est notamment développé en Hongrie, Bulgarie et Pologne, à Taïwan et en Chine, ainsi que dans les boutiques hors taxes des aéroports, dans les trois quarts desquelles il est référencé[7].
-Depuis 2011, la maison Godet produit, à partir du cépage folle-blanche[8], un « cognac incolore »[9], vieilli au moins deux ans comme les autres cognacs, mais dans des fûts dont le tanin est épuisé et qui ne colorent donc plus leur contenu. Sous le label « Antarctica », cette eau-de-vie, incolore donc, à boire glacée et dont le nom évoque celui de la vodka, a obtenu la médaille d'or 2011 de la Tastings International Review of Spirits[10].
-En août 2013, la passerelle qui relie le quartier Saint-Nicolas au centre-ville de La Rochelle reçoit le nom du fondateur de la maison. La plaque indicatrice est ainsi rédigée : « Passerelle Bonaventure Godet. Marchand hollandais de vin brûlé d'Aunis, ancêtre du cognac, installé à La Rochelle en 1550 et fondateur du Cognac Godet »[11].
+Arrivé des Pays-Bas en 1550, Bonaventure Godet établit un négoce de vins sur le quai de La Rochelle. Près de quarante ans plus tard, le futur Henri IV le remercie, par une lettre du 23 décembre 1588, pour une carafe de « brandwijn » offerte au roi de Navarre, roi de France l'année suivante, à l'occasion d'une visite faite à La Rochelle six mois plus tôt.
+À la quatrième génération, Jean Godet enregistre ses armoiries dans l'Armorial général de France d'Hozier, ce qui n'en fait pas une famille noble. Elles se blasonnent « d'argent à trois godets de sable, posés en 2 et 1, et une étoile de même, posée en abyme ». Achetant une charge de conseiller du roi, il est nommé maire à vie de la ville de Fontenais. La famille Godet est une famille subsistante d'ancienne bourgeoisie.
+C'est en 1782, à la septième génération, que Gédéon-Louis Godet inscrit au registre du commerce la société « Maison Godet, négociant en eaux de vie ». Il l'ouvre au négoce international, expédiant ses premières bouteilles sous la marque Godet. Il est élu vice commissaire de la marine et du commerce des Provinces-Unies. Et l'établissement continue de se développer tout au long du XIXe siècle, entre les rues du Duc et Saint-Claude, à proximité du canal de Rompsay.
+En octobre 2002, un incendie se déclare dans les bâtiments administratifs. Quoique sans gravité, il oblige le cognac Godet – qui stocke près de 700 m3 d'alcool pur – à quitter l'ancestral quartier Saint-Nicolas pour se mettre en conformité avec les nouvelles normes de sécurité. L'entreprise s'installe à Laleu, au-dessus de la rocade, dans la zone d'activité des Rivauds Nord, à l'emplacement des vignobles d'avant le phylloxéra.
+Le cognac Godet, « entreprise de dimension internationale », s'est notamment développé en Hongrie, Bulgarie et Pologne, à Taïwan et en Chine, ainsi que dans les boutiques hors taxes des aéroports, dans les trois quarts desquelles il est référencé.
+Depuis 2011, la maison Godet produit, à partir du cépage folle-blanche, un « cognac incolore », vieilli au moins deux ans comme les autres cognacs, mais dans des fûts dont le tanin est épuisé et qui ne colorent donc plus leur contenu. Sous le label « Antarctica », cette eau-de-vie, incolore donc, à boire glacée et dont le nom évoque celui de la vodka, a obtenu la médaille d'or 2011 de la Tastings International Review of Spirits.
+En août 2013, la passerelle qui relie le quartier Saint-Nicolas au centre-ville de La Rochelle reçoit le nom du fondateur de la maison. La plaque indicatrice est ainsi rédigée : « Passerelle Bonaventure Godet. Marchand hollandais de vin brûlé d'Aunis, ancêtre du cognac, installé à La Rochelle en 1550 et fondateur du Cognac Godet ».
 </t>
         </is>
       </c>
